--- a/EBH-2402/EBH-2042_results.xlsx
+++ b/EBH-2402/EBH-2042_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">project name</t>
   </si>
@@ -28,10 +28,7 @@
     <t xml:space="preserve">project id</t>
   </si>
   <si>
-    <t xml:space="preserve">variant type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean # vars</t>
+    <t xml:space="preserve">mean  # vars</t>
   </si>
   <si>
     <t xml:space="preserve">median  # vars</t>
@@ -49,9 +46,6 @@
     <t xml:space="preserve">project-GfGjGZj4XZq86PPy80GFqKXK</t>
   </si>
   <si>
-    <t xml:space="preserve">indel</t>
-  </si>
-  <si>
     <t xml:space="preserve">002_240105_A01295_0292_BHTH75DRX3_MYE</t>
   </si>
   <si>
@@ -77,27 +71,23 @@
   </si>
   <si>
     <t xml:space="preserve">overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean  # vars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -119,9 +109,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,7 +122,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFDEE6EF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEE6EF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -169,7 +166,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,8 +187,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -203,22 +208,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDDDDDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -240,7 +229,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEE6EF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -287,18 +276,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="17.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,313 +308,132 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>810.234042553191</v>
+      <c r="C2" s="4" t="n">
+        <v>266</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>244</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>822</v>
+        <v>704</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1015</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>368</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>927.229166666667</v>
+      <c r="C3" s="4" t="n">
+        <v>281.75</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>250.5</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>939.5</v>
+        <v>1175</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1080</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>479</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>613.854166666667</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>228.770833333333</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>221.5</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>613.5</v>
+        <v>429</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>444</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>756.104166666667</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>361.75</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>267.5</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>762</v>
+        <v>2394</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>543</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>767.125</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>300.3125</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>277</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>762.5</v>
+        <v>1074</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>567</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4" t="n">
-        <f aca="false">AVERAGE(D2:D6)</f>
-        <v>774.909308510638</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <f aca="false">MEDIAN(E2:E6)</f>
-        <v>762.5</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <f aca="false">MAX(F2:F6)</f>
-        <v>1080</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <f aca="false">MIN(G2:G6)</f>
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>266</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>281.75</v>
-      </c>
-      <c r="E11" s="1" t="n">
+      <c r="C7" s="6" t="n">
+        <f aca="false">AVERAGE(C2:C6)</f>
+        <v>287.716666666667</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <f aca="false">MEDIAN(D2:D6)</f>
         <v>250.5</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <v>1175</v>
-      </c>
-      <c r="G11" s="1" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>228.770833333333</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>221.5</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="G12" s="1" t="n">
+      <c r="E7" s="7" t="n">
+        <f aca="false">MAX(E2:E6)</f>
+        <v>2394</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <f aca="false">MIN(F2:F6)</f>
         <v>170</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>361.75</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>267.5</v>
-      </c>
-      <c r="F13" s="1" t="n">
-        <v>2394</v>
-      </c>
-      <c r="G13" s="1" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>300.3125</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>1074</v>
-      </c>
-      <c r="G14" s="1" t="n">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4" t="n">
-        <f aca="false">AVERAGE(D10:D14)</f>
-        <v>287.716666666667</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">MEDIAN(E10:E14)</f>
-        <v>250.5</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <f aca="false">MAX(F10:F14)</f>
-        <v>2394</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <f aca="false">MIN(G10:G14)</f>
-        <v>170</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
+  <mergeCells count="1">
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
